--- a/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
@@ -698,7 +698,7 @@
         <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J2" t="n">
         <v>4.33</v>
@@ -707,7 +707,7 @@
         <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M2" t="n">
         <v>1.14</v>
@@ -764,7 +764,7 @@
         <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -856,7 +856,7 @@
         <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -887,22 +887,22 @@
         <v>1.44</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Z3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
         <v>11</v>
@@ -914,13 +914,13 @@
         <v>21</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK3" t="n">
         <v>12</v>
@@ -929,16 +929,16 @@
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO3" t="n">
         <v>9.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>17</v>
@@ -947,7 +947,7 @@
         <v>23</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -1020,10 +1020,10 @@
         <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W4" t="n">
         <v>2.5</v>
@@ -1545,25 +1545,25 @@
         <v>1.85</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J8" t="n">
         <v>2.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
         <v>4.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
@@ -1574,10 +1574,10 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T8" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1594,13 +1594,13 @@
         <v>2.63</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD8" t="n">
         <v>8.5</v>
@@ -1618,7 +1618,7 @@
         <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ8" t="n">
         <v>7</v>
@@ -1636,7 +1636,7 @@
         <v>19</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -856,7 +856,7 @@
         <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -920,7 +920,7 @@
         <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK3" t="n">
         <v>12</v>
@@ -932,13 +932,13 @@
         <v>10</v>
       </c>
       <c r="AN3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO3" t="n">
         <v>9.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>17</v>
@@ -982,93 +982,93 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H4" t="n">
         <v>4.75</v>
       </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
       <c r="I4" t="n">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="J4" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L4" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W4" t="n">
         <v>2.25</v>
       </c>
-      <c r="U4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2.5</v>
-      </c>
       <c r="X4" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AC4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI4" t="n">
         <v>17</v>
       </c>
-      <c r="AD4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AJ4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK4" t="n">
         <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>13</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1077,16 +1077,16 @@
         <v>9</v>
       </c>
       <c r="AN4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO4" t="n">
         <v>8.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR4" t="n">
         <v>21</v>
@@ -1127,57 +1127,57 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I5" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>2.37</v>
+        <v>2.57</v>
       </c>
       <c r="X5" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AD5" t="n">
         <v>14.5</v>
@@ -1186,31 +1186,31 @@
         <v>9.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI5" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AN5" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>14.5</v>
       </c>
       <c r="AO5" t="n">
         <v>9.5</v>
@@ -1219,13 +1219,13 @@
         <v>28</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR5" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AS5" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6">
@@ -1401,42 +1401,42 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T7" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
@@ -1453,22 +1453,22 @@
         <v>2.63</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE7" t="n">
         <v>10</v>
       </c>
-      <c r="AE7" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AF7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
         <v>19</v>
@@ -1492,19 +1492,19 @@
         <v>9.5</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
         <v>12</v>
       </c>
       <c r="AP7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR7" t="n">
         <v>34</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
       </c>
       <c r="AS7" t="n">
         <v>700</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
@@ -704,7 +704,7 @@
         <v>4.33</v>
       </c>
       <c r="K2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L2" t="n">
         <v>3.25</v>
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -856,7 +856,7 @@
         <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -920,7 +920,7 @@
         <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK3" t="n">
         <v>12</v>
@@ -932,13 +932,13 @@
         <v>10</v>
       </c>
       <c r="AN3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO3" t="n">
         <v>9.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>17</v>
@@ -988,7 +988,7 @@
         <v>4.75</v>
       </c>
       <c r="I4" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J4" t="n">
         <v>6</v>
@@ -997,7 +997,7 @@
         <v>2.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1014,22 +1014,22 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X4" t="n">
         <v>1.53</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.57</v>
       </c>
       <c r="Y4" t="n">
         <v>1.29</v>
@@ -1065,10 +1065,10 @@
         <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1083,7 +1083,7 @@
         <v>8.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ4" t="n">
         <v>11</v>
@@ -1092,7 +1092,7 @@
         <v>21</v>
       </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5">
@@ -1127,66 +1127,66 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I5" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P5" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T5" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="X5" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="AC5" t="n">
         <v>10.25</v>
       </c>
       <c r="AD5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
         <v>9.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
@@ -1195,10 +1195,10 @@
         <v>24</v>
       </c>
       <c r="AI5" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AK5" t="n">
         <v>12</v>
@@ -1207,10 +1207,10 @@
         <v>45</v>
       </c>
       <c r="AM5" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AN5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO5" t="n">
         <v>9.5</v>
@@ -1219,10 +1219,10 @@
         <v>28</v>
       </c>
       <c r="AQ5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AS5" t="n">
         <v>300</v>
@@ -1306,7 +1306,7 @@
         <v>1.44</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Z6" t="n">
         <v>3.25</v>
@@ -1401,13 +1401,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J7" t="n">
         <v>3</v>
@@ -1416,13 +1416,13 @@
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.3</v>
@@ -1447,10 +1447,10 @@
         <v>1.29</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AA7" t="n">
         <v>1.8</v>
@@ -1462,22 +1462,22 @@
         <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
       </c>
       <c r="AF7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG7" t="n">
         <v>21</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>19</v>
       </c>
       <c r="AH7" t="n">
         <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>6.5</v>
@@ -1489,13 +1489,13 @@
         <v>51</v>
       </c>
       <c r="AM7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -1588,10 +1588,10 @@
         <v>1.29</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AA8" t="n">
         <v>1.91</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
@@ -704,16 +704,16 @@
         <v>4.33</v>
       </c>
       <c r="K2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L2" t="n">
         <v>3.25</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.62</v>
@@ -728,10 +728,10 @@
         <v>1.85</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U2" t="n">
         <v>4.9</v>
@@ -856,7 +856,7 @@
         <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1155,15 +1155,15 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="X5" t="n">
         <v>1.42</v>
@@ -1171,43 +1171,43 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
         <v>9.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AK5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AN5" t="n">
         <v>14</v>
@@ -1225,7 +1225,7 @@
         <v>24</v>
       </c>
       <c r="AS5" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6">
@@ -1260,13 +1260,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H6" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J6" t="n">
         <v>2.2</v>
@@ -1275,38 +1275,38 @@
         <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T6" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="X6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Z6" t="n">
         <v>3.25</v>
@@ -1321,7 +1321,7 @@
         <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
         <v>8.5</v>
@@ -1339,7 +1339,7 @@
         <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK6" t="n">
         <v>15</v>
@@ -1351,19 +1351,19 @@
         <v>15</v>
       </c>
       <c r="AN6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO6" t="n">
         <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ6" t="n">
         <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS6" t="n">
         <v>151</v>
@@ -1401,13 +1401,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J7" t="n">
         <v>3</v>
@@ -1416,27 +1416,27 @@
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T7" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
@@ -1447,28 +1447,28 @@
         <v>1.29</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AC7" t="n">
         <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
         <v>21</v>
@@ -1477,7 +1477,7 @@
         <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ7" t="n">
         <v>6.5</v>
@@ -1492,10 +1492,10 @@
         <v>9</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -1545,16 +1545,16 @@
         <v>1.85</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J8" t="n">
         <v>2.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
         <v>4.33</v>
@@ -1574,10 +1574,10 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T8" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1588,19 +1588,19 @@
         <v>1.29</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
         <v>8.5</v>
@@ -1618,7 +1618,7 @@
         <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>7</v>
@@ -1630,13 +1630,13 @@
         <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
         <v>19</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
@@ -841,22 +841,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -908,10 +908,10 @@
         <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH3" t="n">
         <v>26</v>
@@ -935,7 +935,7 @@
         <v>12</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -1020,10 +1020,10 @@
         <v>2.35</v>
       </c>
       <c r="U4" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="W4" t="n">
         <v>2.38</v>
@@ -1130,84 +1130,84 @@
         <v>2.55</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I5" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="J5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L5" t="n">
         <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.05</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>2.45</v>
+        <v>2.57</v>
       </c>
       <c r="X5" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
         <v>9.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AK5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AL5" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM5" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AN5" t="n">
         <v>14</v>
@@ -1225,7 +1225,7 @@
         <v>24</v>
       </c>
       <c r="AS5" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6">
@@ -1542,42 +1542,42 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1588,10 +1588,10 @@
         <v>1.29</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AA8" t="n">
         <v>1.83</v>
@@ -1612,7 +1612,7 @@
         <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
         <v>29</v>
@@ -1630,13 +1630,13 @@
         <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
         <v>41</v>
@@ -1648,7 +1648,7 @@
         <v>41</v>
       </c>
       <c r="AS8" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
@@ -695,31 +695,31 @@
         <v>3.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="I2" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="J2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O2" t="n">
         <v>1.83</v>
       </c>
-      <c r="L2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.62</v>
-      </c>
       <c r="P2" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" t="n">
         <v>2</v>
@@ -728,37 +728,37 @@
         <v>1.85</v>
       </c>
       <c r="S2" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="T2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U2" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W2" t="n">
+        <v>9</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB2" t="n">
         <v>1.4</v>
       </c>
-      <c r="U2" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="n">
         <v>15</v>
@@ -773,37 +773,37 @@
         <v>41</v>
       </c>
       <c r="AH2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI2" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AJ2" t="n">
         <v>6</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AL2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AM2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AN2" t="n">
         <v>9.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
         <v>101</v>
@@ -982,16 +982,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
         <v>4.75</v>
       </c>
       <c r="I4" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.5</v>
@@ -1000,13 +1000,13 @@
         <v>1.91</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
         <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1020,16 +1020,16 @@
         <v>2.35</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="W4" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="X4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y4" t="n">
         <v>1.29</v>
@@ -1038,22 +1038,22 @@
         <v>3.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AC4" t="n">
         <v>21</v>
       </c>
       <c r="AD4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
         <v>41</v>
@@ -1062,22 +1062,22 @@
         <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK4" t="n">
         <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO4" t="n">
         <v>8.5</v>
@@ -1560,10 +1560,10 @@
         <v>4.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.3</v>
@@ -1574,18 +1574,18 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="X8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Y8" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
         <v>2.7</v>
       </c>
       <c r="I2" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J2" t="n">
         <v>4.5</v>
@@ -707,7 +707,7 @@
         <v>1.73</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.18</v>
@@ -755,7 +755,7 @@
         <v>2.75</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AC2" t="n">
         <v>6</v>
@@ -776,7 +776,7 @@
         <v>67</v>
       </c>
       <c r="AI2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>6</v>
@@ -841,19 +841,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
         <v>2.75</v>
@@ -893,7 +893,7 @@
         <v>3.25</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AB3" t="n">
         <v>2.25</v>
@@ -905,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
         <v>34</v>
@@ -914,13 +914,13 @@
         <v>23</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
         <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK3" t="n">
         <v>12</v>
@@ -929,7 +929,7 @@
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN3" t="n">
         <v>12</v>
@@ -947,7 +947,7 @@
         <v>23</v>
       </c>
       <c r="AS3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1127,16 +1127,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
         <v>2.15</v>
@@ -1166,7 +1166,7 @@
         <v>2.57</v>
       </c>
       <c r="X5" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -1177,16 +1177,16 @@
         <v>2.15</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG5" t="n">
         <v>20</v>
@@ -1195,10 +1195,10 @@
         <v>25</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AK5" t="n">
         <v>12</v>
@@ -1213,7 +1213,7 @@
         <v>14</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AP5" t="n">
         <v>28</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
@@ -710,16 +710,16 @@
         <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P2" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Q2" t="n">
         <v>2</v>
@@ -755,7 +755,7 @@
         <v>2.75</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AC2" t="n">
         <v>6</v>
@@ -893,7 +893,7 @@
         <v>3.25</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AB3" t="n">
         <v>2.25</v>
@@ -1127,60 +1127,60 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T5" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>2.57</v>
+        <v>2.77</v>
       </c>
       <c r="X5" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
         <v>9.75</v>
@@ -1189,28 +1189,28 @@
         <v>30</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AK5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO5" t="n">
         <v>9.25</v>
@@ -1219,13 +1219,13 @@
         <v>28</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AR5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AS5" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6">
@@ -1401,7 +1401,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
@@ -1419,10 +1419,10 @@
         <v>3.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1433,18 +1433,18 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="T7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="X7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Y7" t="n">
         <v>1.44</v>
@@ -1468,13 +1468,13 @@
         <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
         <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="n">
         <v>9</v>
@@ -1495,7 +1495,7 @@
         <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -1542,65 +1542,65 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J8" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
         <v>4.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="X8" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD8" t="n">
         <v>8.5</v>
@@ -1615,13 +1615,13 @@
         <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK8" t="n">
         <v>17</v>
@@ -1630,7 +1630,7 @@
         <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
         <v>21</v>
@@ -1648,7 +1648,7 @@
         <v>41</v>
       </c>
       <c r="AS8" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
@@ -1127,54 +1127,58 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="H5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J5" t="n">
         <v>3.25</v>
       </c>
-      <c r="I5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K5" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="T5" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="X5" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
+        <v>1.31</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2.55</v>
+      </c>
       <c r="AA5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="AC5" t="n">
         <v>9</v>
@@ -1189,43 +1193,43 @@
         <v>30</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
         <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AK5" t="n">
         <v>12.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO5" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>9.25</v>
       </c>
       <c r="AP5" t="n">
         <v>28</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AR5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS5" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -1260,22 +1264,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L6" t="n">
         <v>4.33</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1318,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
         <v>9</v>
@@ -1327,7 +1331,7 @@
         <v>8.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1336,7 +1340,7 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
         <v>7.5</v>
@@ -1348,7 +1352,7 @@
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN6" t="n">
         <v>23</v>
@@ -1401,28 +1405,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.2</v>
       </c>
-      <c r="I7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1433,10 +1437,10 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T7" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
@@ -1462,10 +1466,10 @@
         <v>8</v>
       </c>
       <c r="AD7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE7" t="n">
         <v>11</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>10</v>
       </c>
       <c r="AF7" t="n">
         <v>23</v>
@@ -1477,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK7" t="n">
         <v>15</v>
@@ -1489,16 +1493,16 @@
         <v>51</v>
       </c>
       <c r="AM7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
         <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
         <v>23</v>
@@ -1507,7 +1511,7 @@
         <v>34</v>
       </c>
       <c r="AS7" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="8">
@@ -1542,16 +1546,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
@@ -1560,10 +1564,10 @@
         <v>4.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1600,37 +1604,37 @@
         <v>1.91</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE8" t="n">
         <v>8.5</v>
       </c>
-      <c r="AE8" t="n">
-        <v>9</v>
-      </c>
       <c r="AF8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
         <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
         <v>7.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
         <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN8" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I2" t="n">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K2" t="n">
         <v>1.73</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.8</v>
@@ -734,10 +734,10 @@
         <v>1.29</v>
       </c>
       <c r="U2" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="V2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W2" t="n">
         <v>9</v>
@@ -758,25 +758,25 @@
         <v>1.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
         <v>41</v>
       </c>
       <c r="AH2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AJ2" t="n">
         <v>6</v>
@@ -791,13 +791,13 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
         <v>34</v>
@@ -841,28 +841,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
         <v>1.2</v>
@@ -873,10 +873,10 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
@@ -899,10 +899,10 @@
         <v>2.25</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
         <v>12</v>
@@ -920,7 +920,7 @@
         <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK3" t="n">
         <v>12</v>
@@ -929,7 +929,7 @@
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN3" t="n">
         <v>12</v>
@@ -938,16 +938,16 @@
         <v>9</v>
       </c>
       <c r="AP3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR3" t="n">
         <v>21</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>23</v>
-      </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -1127,109 +1127,109 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>2.52</v>
+        <v>2.35</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L5" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="T5" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="X5" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="Y5" t="n">
         <v>1.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF5" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH5" t="n">
         <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AK5" t="n">
         <v>12.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM5" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AN5" t="n">
         <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AQ5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AR5" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AS5" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="H6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I6" t="n">
         <v>3.7</v>
       </c>
-      <c r="I6" t="n">
-        <v>4.1</v>
-      </c>
       <c r="J6" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K6" t="n">
         <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1316,25 +1316,25 @@
         <v>3.25</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AB6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE6" t="n">
         <v>9</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>8.5</v>
       </c>
       <c r="AF6" t="n">
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>23</v>
@@ -1343,10 +1343,10 @@
         <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
@@ -1355,16 +1355,16 @@
         <v>13</v>
       </c>
       <c r="AN6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
         <v>41</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR6" t="n">
         <v>34</v>
@@ -1405,28 +1405,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L7" t="n">
         <v>3.2</v>
       </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.4</v>
-      </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1437,18 +1437,18 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="X7" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Y7" t="n">
         <v>1.44</v>
@@ -1463,28 +1463,28 @@
         <v>1.83</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
       </c>
       <c r="AF7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG7" t="n">
         <v>23</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>21</v>
       </c>
       <c r="AH7" t="n">
         <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK7" t="n">
         <v>15</v>
@@ -1493,10 +1493,10 @@
         <v>51</v>
       </c>
       <c r="AM7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO7" t="n">
         <v>11</v>
@@ -1505,13 +1505,13 @@
         <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR7" t="n">
         <v>34</v>
       </c>
       <c r="AS7" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8">
@@ -1546,22 +1546,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J8" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
@@ -1610,16 +1610,16 @@
         <v>9</v>
       </c>
       <c r="AE8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
         <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
         <v>12</v>
@@ -1634,13 +1634,13 @@
         <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
         <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
         <v>41</v>
@@ -1649,10 +1649,10 @@
         <v>34</v>
       </c>
       <c r="AR8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS8" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
@@ -692,34 +692,34 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="J2" t="n">
         <v>4.33</v>
       </c>
       <c r="K2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="P2" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" t="n">
         <v>2</v>
@@ -728,46 +728,46 @@
         <v>1.85</v>
       </c>
       <c r="S2" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="U2" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="V2" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
         <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
         <v>41</v>
@@ -776,31 +776,31 @@
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AJ2" t="n">
         <v>6</v>
       </c>
       <c r="AK2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP2" t="n">
         <v>26</v>
       </c>
-      <c r="AL2" t="n">
-        <v>126</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP2" t="n">
+      <c r="AQ2" t="n">
         <v>29</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>34</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -841,28 +841,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>1.2</v>
@@ -893,25 +893,25 @@
         <v>3.25</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AC3" t="n">
         <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
         <v>29</v>
@@ -923,31 +923,31 @@
         <v>7</v>
       </c>
       <c r="AK3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
       </c>
       <c r="AM3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN3" t="n">
         <v>10</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>12</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
         <v>15</v>
       </c>
       <c r="AR3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1264,68 +1264,68 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T6" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
+        <v>3</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Z6" t="n">
         <v>2.75</v>
       </c>
-      <c r="X6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>3.25</v>
-      </c>
       <c r="AA6" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AC6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD6" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>9.5</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
@@ -1337,37 +1337,37 @@
         <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
         <v>7</v>
       </c>
       <c r="AK6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN6" t="n">
         <v>21</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
         <v>41</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS6" t="n">
         <v>151</v>
@@ -1405,22 +1405,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.2</v>
       </c>
-      <c r="I7" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1429,50 +1429,50 @@
         <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="X7" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
         <v>23</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK7" t="n">
         <v>15</v>
@@ -1496,22 +1496,22 @@
         <v>8</v>
       </c>
       <c r="AN7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
         <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR7" t="n">
         <v>34</v>
       </c>
       <c r="AS7" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
     </row>
     <row r="8">
@@ -1546,62 +1546,62 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="X8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Z8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
@@ -1610,19 +1610,19 @@
         <v>9</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
         <v>7.5</v>
@@ -1631,16 +1631,16 @@
         <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
         <v>41</v>
@@ -1652,7 +1652,7 @@
         <v>34</v>
       </c>
       <c r="AS8" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
@@ -692,70 +692,70 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L2" t="n">
         <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Y2" t="n">
         <v>1.62</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Z2" t="n">
         <v>2.2</v>
       </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2</v>
-      </c>
       <c r="AA2" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AC2" t="n">
         <v>6.5</v>
@@ -764,46 +764,46 @@
         <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH2" t="n">
         <v>41</v>
       </c>
-      <c r="AG2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>51</v>
-      </c>
       <c r="AI2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ2" t="n">
         <v>6</v>
       </c>
       <c r="AK2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS2" t="n">
         <v>101</v>
@@ -1127,19 +1127,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="H5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J5" t="n">
         <v>3.25</v>
       </c>
-      <c r="I5" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K5" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="L5" t="n">
         <v>2.92</v>
@@ -1147,26 +1147,26 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T5" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="X5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Y5" t="n">
         <v>1.4</v>
@@ -1175,16 +1175,16 @@
         <v>2.52</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
         <v>10</v>
@@ -1193,43 +1193,43 @@
         <v>35</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AK5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL5" t="n">
         <v>50</v>
       </c>
       <c r="AM5" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO5" t="n">
         <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ5" t="n">
         <v>18</v>
       </c>
       <c r="AR5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS5" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6">
@@ -1264,98 +1264,98 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L6" t="n">
         <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="X6" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE6" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK6" t="n">
         <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO6" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS6" t="n">
         <v>151</v>
@@ -1408,47 +1408,47 @@
         <v>2.5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
         <v>2.75</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="T7" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="X7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Y7" t="n">
         <v>1.5</v>
@@ -1457,10 +1457,10 @@
         <v>2.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AC7" t="n">
         <v>7.5</v>
@@ -1478,16 +1478,16 @@
         <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>6</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL7" t="n">
         <v>51</v>
@@ -1505,13 +1505,13 @@
         <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="8">
@@ -1546,56 +1546,56 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="T8" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="X8" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AA8" t="n">
         <v>1.73</v>
@@ -1607,52 +1607,52 @@
         <v>8</v>
       </c>
       <c r="AD8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE8" t="n">
         <v>9</v>
       </c>
-      <c r="AE8" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK8" t="n">
         <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO8" t="n">
         <v>13</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>15</v>
       </c>
       <c r="AP8" t="n">
         <v>41</v>
       </c>
       <c r="AQ8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR8" t="n">
         <v>34</v>
       </c>
       <c r="AS8" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
@@ -695,10 +695,10 @@
         <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -707,13 +707,13 @@
         <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.57</v>
@@ -728,10 +728,10 @@
         <v>1.78</v>
       </c>
       <c r="S2" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U2" t="n">
         <v>4.9</v>
@@ -746,10 +746,10 @@
         <v>1.13</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA2" t="n">
         <v>2.25</v>
@@ -761,7 +761,7 @@
         <v>6.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -776,7 +776,7 @@
         <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>6</v>
@@ -794,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -1570,18 +1570,18 @@
         <v>8.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T8" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H2" t="n">
         <v>2.9</v>
       </c>
       <c r="I2" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
@@ -710,10 +710,10 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.57</v>
@@ -767,7 +767,7 @@
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="n">
         <v>29</v>
@@ -797,7 +797,7 @@
         <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="H5" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="J5" t="n">
         <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1178,52 +1178,52 @@
         <v>1.57</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF5" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
         <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AK5" t="n">
         <v>12</v>
       </c>
       <c r="AL5" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM5" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AN5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AP5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.13</v>
@@ -716,22 +716,22 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S2" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U2" t="n">
         <v>4.9</v>
@@ -740,34 +740,34 @@
         <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
         <v>29</v>
@@ -776,13 +776,13 @@
         <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AJ2" t="n">
         <v>6</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
         <v>81</v>
@@ -794,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="H5" t="n">
         <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
@@ -1158,12 +1158,12 @@
         <v>1.72</v>
       </c>
       <c r="T5" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="X5" t="n">
         <v>1.36</v>
@@ -1178,25 +1178,25 @@
         <v>1.57</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AD5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF5" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
         <v>11</v>
@@ -1208,25 +1208,25 @@
         <v>12</v>
       </c>
       <c r="AL5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM5" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AN5" t="n">
         <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
         <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AR5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS5" t="n">
         <v>300</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-20.xlsx
@@ -692,73 +692,73 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.53</v>
       </c>
-      <c r="P2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.44</v>
-      </c>
       <c r="U2" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="V2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5</v>
+      </c>
+      <c r="X2" t="n">
         <v>1.17</v>
       </c>
-      <c r="W2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.14</v>
-      </c>
       <c r="Y2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD2" t="n">
         <v>13</v>
@@ -776,7 +776,7 @@
         <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ2" t="n">
         <v>6</v>
@@ -785,22 +785,22 @@
         <v>19</v>
       </c>
       <c r="AL2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AN2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -1127,46 +1127,46 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.77</v>
+        <v>3.45</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>2.9</v>
+        <v>2.62</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="X5" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Y5" t="n">
         <v>1.4</v>
@@ -1178,25 +1178,25 @@
         <v>1.57</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.75</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI5" t="n">
         <v>11</v>
@@ -1205,28 +1205,28 @@
         <v>6.4</v>
       </c>
       <c r="AK5" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AL5" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM5" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>10.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AR5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AS5" t="n">
         <v>300</v>
